--- a/ExecutionTestData/RerunBatch1/TestData.xlsx
+++ b/ExecutionTestData/RerunBatch1/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace\DBS_Automation\ExecutionTestData\RerunBatch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\batche8feb\RerunBatch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -464,9 +464,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -479,40 +476,37 @@
     <t>121212</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyNote20_Android_11.0.0_765c8</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyFold_Android_9.0.0_d69de</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote20_Android_12.0.0_2b7fa</t>
-  </si>
-  <si>
     <t>10.0.0</t>
   </si>
   <si>
     <t>12.0.0</t>
   </si>
   <si>
-    <t>GOOGLE_Pixel2_Android_11.0.0_c2579</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel3_Android_12.0.0_a6091</t>
-  </si>
-  <si>
-    <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi6Pro_Android_8.1.0_3492f</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
+    <t>HUAWEI_Mate10_Android_10.0.0_2af65</t>
+  </si>
+  <si>
+    <t>ONEPLUS_5T_Android_9.0.0_7e05c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote9_Android_10.0.0_d2f61</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20FE_Android_11.0.0_c4883</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20FE5G_Android_12.0.0_2ff2c</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyTabS7_Android_12.0.0_985fb</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -671,13 +665,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1004,7 +998,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1139,7 +1133,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1186,122 +1180,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="16" width="17.140625" style="12"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="6" max="9" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>139</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1329,329 +1279,182 @@
       <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
+      <c r="B4" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
         <v>10</v>
       </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1679,35 +1482,14 @@
       <c r="I10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:P2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:P2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1812,7 +1594,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1877,7 +1659,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1993,7 +1775,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2019,7 +1801,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
